--- a/package/LangMod/CN/SourceCard.xlsx
+++ b/package/LangMod/CN/SourceCard.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="191">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">ability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addEleOnLoad</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -987,7 +984,7 @@
   <dimension ref="A1:AT6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="C4 C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.92578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1644,8 +1641,8 @@
   </sheetPr>
   <dimension ref="A1:BE5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB4" activeCellId="0" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.92578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2092,9 +2089,7 @@
       <c r="Z4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AB4" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="AB4" s="6"/>
       <c r="AD4" s="12" t="n">
         <v>50</v>
       </c>
@@ -2102,22 +2097,22 @@
         <v>0</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG4" s="12" t="n">
         <v>5</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK4" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AR4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS4" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="AS4" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="AT4" s="6"/>
       <c r="AU4" s="6"/>
@@ -2173,7 +2168,7 @@
   <dimension ref="A1:AZ9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="C4 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.92578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2186,13 +2181,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -2201,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>42</v>
@@ -2213,31 +2208,31 @@
         <v>13</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>38</v>
@@ -2249,13 +2244,13 @@
         <v>40</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>36</v>
@@ -2267,16 +2262,16 @@
         <v>35</v>
       </c>
       <c r="AD1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="AF1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>11</v>
@@ -2285,49 +2280,49 @@
         <v>12</v>
       </c>
       <c r="AJ1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="AT1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AU1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="AY1" s="4" t="s">
         <v>44</v>
@@ -2494,26 +2489,26 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>1821</v>
@@ -2522,16 +2517,16 @@
         <v>1921</v>
       </c>
       <c r="U4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>4000</v>
@@ -2546,16 +2541,16 @@
         <v>35000</v>
       </c>
       <c r="AH4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AQ4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR4" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2578,7 +2573,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="C4 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.92578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2588,70 +2583,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/package/LangMod/CN/SourceCard.xlsx
+++ b/package/LangMod/CN/SourceCard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" state="visible" r:id="rId3"/>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">dan_yao</t>
   </si>
   <si>
-    <t xml:space="preserve">herb </t>
+    <t xml:space="preserve">herb</t>
   </si>
   <si>
     <t xml:space="preserve">霊薬 </t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">nerve/-10</t>
   </si>
   <si>
-    <t xml:space="preserve">drug </t>
+    <t xml:space="preserve">drug</t>
   </si>
   <si>
     <t xml:space="preserve">生命のエッセンスを取り込み、それを精製する霊薬。 熟練度ポイントや基本属性を直接上昇させることができる。</t>
@@ -983,8 +983,8 @@
   </sheetPr>
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.92578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1323,7 +1323,7 @@
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1362,35 +1362,35 @@
         <v>10</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="2"/>
@@ -1423,7 +1423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1462,35 +1462,35 @@
         <v>10</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="2"/>
@@ -1523,7 +1523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -1562,35 +1562,35 @@
         <v>10</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="2"/>
@@ -1641,7 +1641,7 @@
   </sheetPr>
   <dimension ref="A1:BE5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AB4" activeCellId="0" sqref="AB4"/>
     </sheetView>
   </sheetViews>
@@ -2031,7 +2031,7 @@
       <c r="AT3" s="8"/>
       <c r="AU3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>6516</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>160</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>182</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>185</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>188</v>
       </c>
